--- a/data/income_statement/3digits/total/271_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/271_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>271-Manufacture of electric motors, generators, transformers and electricity distribution and control apparatus</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>271-Manufacture of electric motors, generators, transformers and electricity distribution and control apparatus</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>7278756.01246</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>7630290.225559999</v>
+        <v>7630290.22556</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>10349499.05795</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>10837047.59714</v>
+        <v>10884981.97829</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>14103894.90822</v>
+        <v>14157314.61288</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>14967032.88015</v>
+        <v>15279584.88129</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>13848637.25561</v>
+        <v>17009747.32459</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>19450860.86641</v>
+        <v>19492188.07055</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>25024753.6104</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>30404449.3908</v>
+        <v>30414873.52015</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>33266852.45779</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>33328738.61422</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>40553648.83</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>4572862.72369</v>
@@ -998,34 +909,39 @@
         <v>6672725.552629999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>7211547.36469</v>
+        <v>7255597.12502</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>9063961.639899999</v>
+        <v>9079523.501420001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>10623087.51339</v>
+        <v>10722126.71153</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>9568468.25972</v>
+        <v>11587106.44299</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>13513041.03839</v>
+        <v>13534337.83823</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>18026906.5302</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>20789695.71982</v>
+        <v>20799764.4676</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>21703712.03235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>21754011.6254</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>26313353.908</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>2630406.65148</v>
@@ -1037,34 +953,39 @@
         <v>3595913.91386</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>3529769.65964</v>
+        <v>3532886.59676</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>4938543.12296</v>
+        <v>4976337.69618</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>4216448.243799999</v>
+        <v>4429717.2412</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>4136651.85221</v>
+        <v>5271728.50465</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>5772287.62542</v>
+        <v>5792111.22728</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>6735286.191589999</v>
+        <v>6735286.191590001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>9250230.970899999</v>
+        <v>9250560.1789</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>11147812.70232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11159185.25822</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>13740128.563</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>75486.63729</v>
@@ -1076,34 +997,39 @@
         <v>80859.59146000001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>95730.57281</v>
+        <v>96498.25650999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>101390.14536</v>
+        <v>101453.41528</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>127497.12296</v>
+        <v>127740.92856</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>143517.14368</v>
+        <v>150912.37695</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>165532.2026</v>
+        <v>165739.00504</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>262560.88861</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>364522.70008</v>
+        <v>364548.87365</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>415327.72312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>415541.7306</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>500166.359</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>260683.82907</v>
@@ -1115,73 +1041,83 @@
         <v>541319.8703299999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>622605.9529599999</v>
+        <v>623197.9482400001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>657802.48425</v>
+        <v>657930.1144200001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>802190.8998799999</v>
+        <v>824410.5118300001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>878069.18363</v>
+        <v>981203.90355</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1096044.51913</v>
+        <v>1096408.49121</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>1499076.02315</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1801424.14477</v>
+        <v>1801638.03715</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1976252.911</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1976454.30784</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1625671.896</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>47616.48238</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>44563.73895</v>
+        <v>44563.73895000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>62762.26957</v>
+        <v>62762.26957000001</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>79095.61486</v>
+        <v>79523.92768000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>89867.23599000002</v>
+        <v>89994.86616000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>120691.63573</v>
+        <v>120923.63351</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>131966.83757</v>
+        <v>165876.3464</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>242198.16425</v>
+        <v>242263.83681</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>330527.55847</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>366986.96065</v>
+        <v>367200.8530300001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>299836.99837</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>300030.26931</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>384330.558</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>176946.88834</v>
@@ -1190,22 +1126,22 @@
         <v>289728.15393</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>429501.49614</v>
+        <v>429501.4961400001</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>491125.92238</v>
+        <v>491289.60484</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>506976.7194000001</v>
+        <v>506976.7194</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>620779.2680899999</v>
+        <v>620796.8641799999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>673177.11872</v>
+        <v>719620.5325500001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>766129.96455</v>
+        <v>766190.1360800001</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>1028620.74296</v>
@@ -1214,22 +1150,27 @@
         <v>1188335.34444</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1410544.16014</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1410552.03235</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>966269.687</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>36120.45835</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>43861.18874000001</v>
+        <v>43861.18874</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>49056.10462</v>
+        <v>49056.10462000001</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>52384.41572</v>
@@ -1238,13 +1179,13 @@
         <v>60958.52886000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>60719.99606</v>
+        <v>82690.01414</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>72925.22733999998</v>
+        <v>95707.0246</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>87716.39032999999</v>
+        <v>87954.51831999999</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>139927.72172</v>
@@ -1253,130 +1194,150 @@
         <v>246101.83968</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>265871.75249</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>265872.00618</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>275071.651</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>7018072.183389999</v>
+        <v>7018072.18339</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>7252137.14394</v>
+        <v>7252137.143940001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>9808179.187620001</v>
+        <v>9808179.187619999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>10214441.64418</v>
+        <v>10261784.03005</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>13446092.42397</v>
+        <v>13499384.49846</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>14164841.98027</v>
+        <v>14455174.36946</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>12970568.07198</v>
+        <v>16028543.42104</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>18354816.34728</v>
+        <v>18395779.57934</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>23525677.58725</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>28603025.24603</v>
+        <v>28613235.483</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>31290599.54679</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>31352284.30638</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>38927976.934</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>5335252.68461</v>
+        <v>5335252.684610001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>5830826.29011</v>
+        <v>5830826.290109999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>7907154.38682</v>
+        <v>7907154.386820001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>8402711.60861</v>
+        <v>8440806.143879998</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>10786445.5331</v>
+        <v>10833003.83653</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>11407773.20607</v>
+        <v>11645598.71</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>10496002.86971</v>
+        <v>12976725.98174</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>15021055.66716</v>
+        <v>15052971.58555</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>19060559.19867</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>22674539.88358</v>
+        <v>22682582.40695</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>25850019.51716</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>25901284.77263</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>31230523.422</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>3733765.480959999</v>
+        <v>3733765.48096</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>3928771.761719999</v>
+        <v>3928771.76172</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>5149460.64072</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>5576515.94636</v>
+        <v>5606001.13226</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>7635721.13389</v>
+        <v>7682015.661560001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>8071472.820829999</v>
+        <v>8300615.57523</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>8166440.53524</v>
+        <v>9269583.572520001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>10415891.95484</v>
+        <v>10442149.20087</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>13315741.23595</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>16759835.20058</v>
+        <v>16761593.17005</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>18620437.15032</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>18638497.60652</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>22706023.687</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>735969.66549</v>
@@ -1388,73 +1349,83 @@
         <v>2019862.08587</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>2176292.05929</v>
+        <v>2184180.0978</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2346680.66463</v>
+        <v>2346944.44039</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2306983.14157</v>
+        <v>2313697.23589</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2082188.66941</v>
+        <v>3029182.45521</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3140503.6221</v>
+        <v>3141647.85807</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>4062422.48272</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>4401286.845269999</v>
+        <v>4405454.82744</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>4991959.31234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>5018380.75234</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>6076875.338</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>846674.8027199999</v>
+        <v>846674.80272</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>568492.48713</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>712126.8842400002</v>
+        <v>712126.88424</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>637008.77671</v>
+        <v>637730.08757</v>
       </c>
       <c r="G17" s="48" t="n">
         <v>784476.632</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>999322.9314199999</v>
+        <v>1001291.58663</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>203233.17144</v>
+        <v>632779.56124</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1423455.56553</v>
+        <v>1427742.63983</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1648567.50592</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1408415.46964</v>
+        <v>1410532.04137</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2120033.71331</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2126817.07258</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2271847.877</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>18842.73544</v>
@@ -1475,13 +1446,13 @@
         <v>29994.31225</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>44140.49361999999</v>
+        <v>45180.39277</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>41204.52469</v>
+        <v>41431.88678</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>33827.97408000001</v>
+        <v>33827.97408</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>105002.36809</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>117589.34119</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>175776.52</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1682819.49878</v>
@@ -1505,34 +1481,39 @@
         <v>1901024.8008</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1811730.03557</v>
+        <v>1820977.88617</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2659646.89087</v>
+        <v>2666380.66193</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2757068.7742</v>
+        <v>2809575.65946</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2474565.20227</v>
+        <v>3051817.4393</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3333760.68012</v>
+        <v>3342807.99379</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>4465118.38858</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>5928485.362450001</v>
+        <v>5930653.07605</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>5440580.02963</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>5450999.53375</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>7697453.512</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>692129.1670400001</v>
@@ -1544,34 +1525,39 @@
         <v>912263.67952</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1024384.38225</v>
+        <v>1028426.42401</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1357314.91606</v>
+        <v>1361315.52427</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1525080.42611</v>
+        <v>1544495.4969</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1538108.74571</v>
+        <v>1809186.84478</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2024739.28895</v>
+        <v>2031614.12264</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2376496.238129999</v>
+        <v>2376496.23813</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2964277.32034</v>
+        <v>2966766.35997</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3438080.4933</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3444087.57374</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3736333.669</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>32565.93794</v>
@@ -1586,16 +1572,16 @@
         <v>38386.67151000001</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>56305.3618</v>
+        <v>56305.36180000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>70412.92667</v>
+        <v>70499.94804999999</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>91796.25501000001</v>
+        <v>92784.84668999999</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>112883.26046</v>
+        <v>113600.92496</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>112841.79717</v>
@@ -1604,13 +1590,18 @@
         <v>145473.44378</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>174036.40191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>174039.81441</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>212744.4</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>242750.40828</v>
@@ -1622,34 +1613,39 @@
         <v>350475.63427</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>385662.1510299999</v>
+        <v>386442.11994</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>513247.4873200001</v>
+        <v>515078.0923</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>537667.9043099999</v>
+        <v>546439.2202999999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>498327.52556</v>
+        <v>640168.06761</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>690798.9283799999</v>
+        <v>692313.2010600001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>803900.5146</v>
+        <v>803900.5145999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>951676.71156</v>
+        <v>951924.19466</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1071733.32485</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1072106.44984</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1265920.902</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>416812.82082</v>
@@ -1658,76 +1654,86 @@
         <v>428640.11104</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>533944.1489799999</v>
+        <v>533944.1489800001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>600335.5597100001</v>
+        <v>603597.6325599999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>787762.06694</v>
+        <v>789932.07017</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>916999.59513</v>
+        <v>927556.32855</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>947984.96514</v>
+        <v>1076233.93048</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1221057.10011</v>
+        <v>1225699.99662</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1459753.92636</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1867127.165</v>
+        <v>1869368.72153</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2192310.76654</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2197941.30949</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2257668.367</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>990690.3317400001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>680783.1671800001</v>
+        <v>680783.16718</v>
       </c>
       <c r="E24" s="47" t="n">
         <v>988761.12128</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>787345.6533199999</v>
+        <v>792551.46216</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1302331.97481</v>
+        <v>1305065.13766</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1231988.34809</v>
+        <v>1265080.16256</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>936456.45656</v>
+        <v>1242630.59452</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1309021.39117</v>
+        <v>1311193.87115</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>2088622.15045</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2964208.04211</v>
+        <v>2963886.716080001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2002499.53633</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2006911.96001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3961119.843</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>437170.05102</v>
@@ -1736,37 +1742,42 @@
         <v>401518.66217</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>711895.3205300001</v>
+        <v>711895.32053</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>626964.8478300001</v>
+        <v>627374.57588</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1252319.02086</v>
+        <v>1253034.22691</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1327157.68993</v>
+        <v>1358480.98569</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1817310.36819</v>
+        <v>2054648.03663</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1851617.99301</v>
+        <v>1855004.36653</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1957493.37124</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>4497476.04819</v>
+        <v>4497584.07912</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2701630.82166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2694673.21881</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>4720354.084</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>171.3292</v>
@@ -1775,7 +1786,7 @@
         <v>118.95604</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>415.39636</v>
+        <v>415.3963600000001</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>238.31672</v>
@@ -1784,7 +1795,7 @@
         <v>267.61028</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>6970.974480000001</v>
+        <v>6970.97448</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>201.63627</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>1294.81542</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>2206.133</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>18996.84621</v>
@@ -1829,7 +1845,7 @@
         <v>22324.76983</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>29211</v>
+        <v>30864.61374</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>67892.35592</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>15982.18084</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>188.586</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>30898.70862</v>
@@ -1856,19 +1877,19 @@
         <v>45268.93021</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>72287.64504</v>
+        <v>72361.14193000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>46823.47756</v>
+        <v>46834.62497</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>59858.99395</v>
+        <v>60478.62853</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>79088.05549999999</v>
+        <v>83967.12763000002</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>114779.40693</v>
+        <v>114877.368</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>126661.02591</v>
@@ -1877,22 +1898,27 @@
         <v>233939.59863</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>268879.07423</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>269730.34636</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>210050.196</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>5946.33507</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>5256.648980000001</v>
+        <v>5256.64898</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>8921.545070000002</v>
+        <v>8921.54507</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>6913.96633</v>
@@ -1901,10 +1927,10 @@
         <v>8129.90779</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>6704.672979999999</v>
+        <v>6704.67298</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1055.57923</v>
+        <v>5542.73999</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>8794.73833</v>
@@ -1918,14 +1944,19 @@
       <c r="M29" s="48" t="n">
         <v>18973.16072</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>10861.268</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>74725.94241999999</v>
+        <v>74725.94242000001</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>78626.52111</v>
@@ -1940,13 +1971,13 @@
         <v>140402.41502</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>61909.75150000001</v>
+        <v>61936.42775</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>49832.75385</v>
+        <v>73880.21646000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>77407.62865</v>
+        <v>77408.32794</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>55014.53121</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>110842.62922</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>111199.644</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1441.18358</v>
@@ -1985,7 +2021,7 @@
         <v>1896.17743</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>64974.45783</v>
+        <v>65004.29459999999</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>5327.91652</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>3250.80272</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>5400.387</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>274324.18458</v>
@@ -2012,34 +2053,39 @@
         <v>484150.9179</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>445738.04541</v>
+        <v>445981.5304700001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1025882.1547</v>
+        <v>1026578.60735</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1125847.54967</v>
+        <v>1153898.3499</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1590190.49186</v>
+        <v>1780829.7616</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1450464.33684</v>
+        <v>1451504.30332</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>1455983.59739</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>3894909.36588</v>
+        <v>3895013.29379</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2063884.71961</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2056040.08295</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>4164801.528</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>4470.7723</v>
@@ -2057,10 +2103,10 @@
         <v>13611.06559</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>12392.92361</v>
+        <v>12395.62369</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>11281.27008</v>
+        <v>14647.8044</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>17067.49019</v>
@@ -2072,13 +2118,18 @@
         <v>40221.68547</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>38771.72623000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>38771.72623</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>32234.017</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>1754.17969</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>5089.706</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>26194.74904</v>
@@ -2129,76 +2185,86 @@
         <v>45890.49845000001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>27943.58001</v>
+        <v>28036.32611</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>10813.88679</v>
+        <v>10821.49278</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>52219.75534</v>
+        <v>54843.23996</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>61262.32593</v>
+        <v>71180.49481</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>88574.50374</v>
+        <v>89138.79991</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>88589.13445</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>132170.94071</v>
+        <v>132175.04373</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>177997.53298</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>178033.29466</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>178322.619</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>391761.5057</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>367840.85886</v>
+        <v>367840.8588600001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>798921.3647099998</v>
+        <v>798921.36471</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>574570.5495600001</v>
+        <v>574786.1051899999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1313931.23699</v>
+        <v>1315433.81743</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1412222.82499</v>
+        <v>1422233.53367</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1861844.77757</v>
+        <v>2119020.68106</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1821448.79945</v>
+        <v>1823721.99576</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1964719.39282</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>4857129.30796</v>
+        <v>4857540.475900001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2573847.86076</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2566304.9081</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>5141694.97</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>6676.5814</v>
+        <v>6676.581399999999</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>7195.10154</v>
@@ -2213,10 +2279,10 @@
         <v>24491.75808</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>24779.12892</v>
+        <v>24780.62892</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>21730.4993</v>
+        <v>21783.3413</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>20230.25058</v>
@@ -2225,16 +2291,21 @@
         <v>25260.09225</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>23463.91694</v>
+        <v>23483.76583</v>
       </c>
       <c r="M37" s="48" t="n">
         <v>34091.78707999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>61898.309</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>144009.68264</v>
@@ -2246,19 +2317,19 @@
         <v>183375.20304</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>111912.42874</v>
+        <v>111921.5761</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>130991.02238</v>
+        <v>131025.45738</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>103184.4661</v>
+        <v>103245.57735</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>65239.12084</v>
+        <v>104192.19394</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>147549.67305</v>
+        <v>148142.44172</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>123582.94813</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>120128.5319</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>279013.535</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>460.01708</v>
@@ -2288,7 +2364,7 @@
         <v>430.61344</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>34.51563</v>
+        <v>34.51562999999999</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>10.68757</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>461.0189</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>460.344</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>225881.871</v>
@@ -2324,34 +2405,39 @@
         <v>576191.50498</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>402844.48657</v>
+        <v>403050.89484</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1119041.21149</v>
+        <v>1120509.19903</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1235368.94048</v>
+        <v>1245231.09154</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1716441.75115</v>
+        <v>1921134.58334</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1530741.91644</v>
+        <v>1532173.2903</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>1683632.58116</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>4408543.52027</v>
+        <v>4408934.36998</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2299706.5941</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2292162.34585</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>4655617.345</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>3902.34063</v>
@@ -2369,10 +2455,10 @@
         <v>15192.39856</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>16210.84375</v>
+        <v>16263.41551</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>10628.56677</v>
+        <v>14488.67669</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>18169.20793</v>
@@ -2384,13 +2470,18 @@
         <v>51956.21915</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>38712.62259</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>38712.62259000001</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>34628.899</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.15466</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>1.0588</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>10830.85829</v>
@@ -2444,31 +2540,36 @@
         <v>25959.91792</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>24180.33085</v>
+        <v>24180.48875</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>32652.13441</v>
+        <v>32685.50902</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>47720.70363</v>
+        <v>57337.74991</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>104297.75621</v>
+        <v>104546.80999</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>109801.31833</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>112519.57543</v>
+        <v>112520.04477</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>80746.24739</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>80747.54298</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>110076.538</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>220233.0636</v>
@@ -2480,34 +2581,39 @@
         <v>169125.70411</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>171710.24842</v>
+        <v>172112.01234</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>236484.42111</v>
+        <v>236796.85834</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>227964.36093</v>
+        <v>248842.76911</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>258346.02775</v>
+        <v>336608.14121</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>402877.1308099999</v>
+        <v>403574.16266</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>524882.0698599999</v>
+        <v>524882.06986</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>883856.08422</v>
+        <v>883880.17424</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1092219.16179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1092796.36249</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1168345.958</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>204864.92411</v>
@@ -2519,34 +2625,39 @@
         <v>139245.01118</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>154682.6741</v>
+        <v>155084.43802</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>207675.85299</v>
+        <v>207988.29022</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>216416.46888</v>
+        <v>236996.33969</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>238476.34311</v>
+        <v>316738.45657</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>350450.16768</v>
+        <v>351147.19953</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>454695.69855</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>735742.3654100001</v>
+        <v>735766.4554300001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1011517.04937</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1012094.25007</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>972875.329</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>15368.13949</v>
@@ -2564,7 +2675,7 @@
         <v>28808.56812</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>11547.89205</v>
+        <v>11846.42942</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>19869.68464</v>
@@ -2579,16 +2690,21 @@
         <v>148113.71881</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>80702.11242000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>80702.11242</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>195470.629</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>815865.8134600001</v>
+        <v>815865.81346</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>596243.10381</v>
@@ -2597,34 +2713,39 @@
         <v>732609.3729900001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>668029.70317</v>
+        <v>673027.92051</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1004235.33757</v>
+        <v>1005868.6888</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>918958.8521</v>
+        <v>952484.8454700001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>633576.01943</v>
+        <v>841649.8088799999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>936313.45392</v>
+        <v>938902.07926</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1556514.05901</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1720698.69812</v>
+        <v>1720050.14506</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1038063.33544</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1042483.90823</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2371432.999</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>30660.1606</v>
@@ -2636,40 +2757,45 @@
         <v>46511.44985</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>59848.09273999999</v>
+        <v>60023.35043999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>150552.06333</v>
+        <v>150688.10057</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>86078.20984000001</v>
+        <v>89186.23352000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>117778.85707</v>
+        <v>133236.66821</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>138778.36572</v>
+        <v>139348.20504</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>185838.6223</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>304703.9915300001</v>
+        <v>304808.41134</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>214871.98064</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>215320.09765</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>435843.424</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>758.25545</v>
+        <v>758.2554500000001</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>942.6515599999999</v>
+        <v>942.65156</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>1575.5075</v>
@@ -2693,16 +2819,21 @@
         <v>24245.05531</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>5831.702149999999</v>
+        <v>5831.70215</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>4217.812900000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>3899.45212</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>9108.418</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>29901.90515</v>
@@ -2714,34 +2845,39 @@
         <v>44935.94235</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>53431.46508</v>
+        <v>53606.72278</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>149451.29163</v>
+        <v>149587.32887</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>84762.58109000001</v>
+        <v>87870.60476999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>115401.9872</v>
+        <v>130859.79834</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>137406.5191</v>
+        <v>137976.35842</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>161593.56699</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>298872.28938</v>
+        <v>298976.70919</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>210654.16774</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>211420.64553</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>426735.006</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>60317.51824</v>
@@ -2753,34 +2889,39 @@
         <v>170829.6054</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>95930.36683000001</v>
+        <v>95957.13094</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>94661.29853</v>
+        <v>94683.02065000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>159735.03036</v>
+        <v>167320.74161</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>134487.18842</v>
+        <v>198512.26237</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>268518.83301</v>
+        <v>268732.50336</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>145749.14074</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>258218.8775</v>
+        <v>258391.64013</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>201663.98817</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>202106.0673</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>258744.972</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>7056.85255</v>
@@ -2792,16 +2933,16 @@
         <v>5952.15459</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>5363.497710000001</v>
+        <v>5363.49771</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>7940.41999</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>10262.04568</v>
+        <v>11363.62929</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>12809.79653</v>
+        <v>16113.51324</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>4194.99331</v>
@@ -2810,16 +2951,21 @@
         <v>10570.76043</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>8504.842279999999</v>
+        <v>8546.69874</v>
       </c>
       <c r="M52" s="48" t="n">
         <v>19092.00805</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>15397.271</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>13759.85732</v>
@@ -2834,16 +2980,16 @@
         <v>33636.83031</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>14568.15024</v>
+        <v>14568.66074</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>22739.89101</v>
+        <v>22849.15006</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>23821.92257</v>
+        <v>29341.78637</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>67897.9045</v>
+        <v>67942.29526</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>43230.43118000001</v>
@@ -2854,14 +3000,19 @@
       <c r="M53" s="48" t="n">
         <v>43274.87935</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>30900.974</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>39500.80837000001</v>
+        <v>39500.80837</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>30768.6806</v>
@@ -2870,73 +3021,83 @@
         <v>150966.20898</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>56930.03881000001</v>
+        <v>56956.80292</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>72152.7283</v>
+        <v>72173.93992</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>126733.09367</v>
+        <v>133107.96226</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>97855.46931999999</v>
+        <v>153056.96276</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>196425.9352</v>
+        <v>196595.21479</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>91947.94912999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>220389.61077</v>
+        <v>220520.51694</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>139297.10077</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>139739.1799</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>212446.727</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>786208.45582</v>
+        <v>786208.4558199999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>592257.3933199999</v>
+        <v>592257.39332</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>608291.2174399999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>631947.42908</v>
+        <v>637094.1400100001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1060126.10237</v>
+        <v>1061873.76872</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>845302.0315800001</v>
+        <v>874350.3373800002</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>616867.68808</v>
+        <v>776374.21472</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>806572.9866299998</v>
+        <v>809517.78094</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1596603.54057</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1767183.81215</v>
+        <v>1766466.91627</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1051271.32791</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1055697.93858</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2548531.451</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>170636.24046</v>
@@ -2948,34 +3109,39 @@
         <v>168110.33698</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>130939.81733</v>
+        <v>131984.8625</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>152692.94964</v>
+        <v>153137.31278</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>156702.32754</v>
+        <v>163415.70323</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>132920.37805</v>
+        <v>175054.34232</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>149139.27544</v>
+        <v>149723.97906</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>180920.07427</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>362864.18793</v>
+        <v>362888.60821</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>197762.79711</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>198370.21617</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>344425.289</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>615572.21536</v>
@@ -2987,31 +3153,34 @@
         <v>440180.88046</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>501007.61175</v>
+        <v>505109.27751</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>907433.15273</v>
+        <v>908736.45594</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>688599.7040400001</v>
+        <v>710934.6341500001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>483947.3100300001</v>
+        <v>601319.8724</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>657433.7111899999</v>
+        <v>659793.80188</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1415683.4663</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1404319.62422</v>
+        <v>1403578.30806</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>853508.5307999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>857327.72241</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2204106.162</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1044</v>
@@ -3041,31 +3213,34 @@
         <v>1181</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1168</v>
+        <v>1173</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1225</v>
+        <v>1235</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1295</v>
+        <v>1308</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1369</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1369</v>
+        <v>1462</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1536</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>